--- a/WebRoot/oem/dacheng/locale/locale-en.xlsx
+++ b/WebRoot/oem/dacheng/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4402EF1E-4C3C-4B74-A3CB-1F511A87AE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB85224B-26DD-4BAF-8872-0E6C52557A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4285" uniqueCount="4056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="4065">
   <si>
     <t>myself</t>
   </si>
@@ -15359,6 +15359,42 @@
   </si>
   <si>
     <t>Run status field name association</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgAssociatedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该组织关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The organization associates information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleAssociatedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该角色关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The role is associated with information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17666,10 +17702,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4052</v>
+        <v>4061</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4053</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17680,10 +17716,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4054</v>
+        <v>4063</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4055</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23057,8 +23093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
   <dimension ref="A1:D761"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C755" sqref="C755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33527,22 +33563,46 @@
       </c>
     </row>
     <row r="748" spans="1:4">
-      <c r="A748" s="14"/>
-      <c r="B748" s="4"/>
-      <c r="C748" s="17"/>
-      <c r="D748" s="24"/>
+      <c r="A748" s="14">
+        <v>747</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C748" s="17" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D748" s="24" t="s">
+        <v>4054</v>
+      </c>
     </row>
     <row r="749" spans="1:4">
-      <c r="A749" s="14"/>
-      <c r="B749" s="4"/>
-      <c r="C749" s="17"/>
-      <c r="D749" s="24"/>
+      <c r="A749" s="14">
+        <v>748</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C749" s="17" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D749" s="24" t="s">
+        <v>4057</v>
+      </c>
     </row>
     <row r="750" spans="1:4">
-      <c r="A750" s="14"/>
-      <c r="B750" s="4"/>
-      <c r="C750" s="17"/>
-      <c r="D750" s="24"/>
+      <c r="A750" s="14">
+        <v>749</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C750" s="17" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D750" s="24" t="s">
+        <v>4060</v>
+      </c>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="14"/>

--- a/WebRoot/oem/dacheng/locale/locale-en.xlsx
+++ b/WebRoot/oem/dacheng/locale/locale-en.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB85224B-26DD-4BAF-8872-0E6C52557A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F839E8-5EDC-4A27-BE62-280A02B1A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="4065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="4068">
   <si>
     <t>myself</t>
   </si>
@@ -15395,6 +15395,18 @@
   </si>
   <si>
     <t>The role is associated with information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17702,10 +17714,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4061</v>
+        <v>4064</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4062</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17716,10 +17728,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4063</v>
+        <v>4066</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4064</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23094,7 +23106,7 @@
   <dimension ref="A1:D761"/>
   <sheetViews>
     <sheetView topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C755" sqref="C755"/>
+      <selection activeCell="C756" sqref="C756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33605,10 +33617,18 @@
       </c>
     </row>
     <row r="751" spans="1:4">
-      <c r="A751" s="14"/>
-      <c r="B751" s="4"/>
-      <c r="C751" s="17"/>
-      <c r="D751" s="24"/>
+      <c r="A751" s="14">
+        <v>750</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4062</v>
+      </c>
+      <c r="D751" s="24" t="s">
+        <v>4063</v>
+      </c>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="14"/>

--- a/WebRoot/oem/dacheng/locale/locale-en.xlsx
+++ b/WebRoot/oem/dacheng/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F839E8-5EDC-4A27-BE62-280A02B1A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168048C6-CE69-4305-A291-E3B2E34405BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="4068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="4074">
   <si>
     <t>myself</t>
   </si>
@@ -15407,6 +15407,30 @@
   </si>
   <si>
     <t>Tag management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印通信服务交互日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the communication service interaction log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printAdLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printExceptionLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印异常信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the exception information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17714,10 +17738,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4064</v>
+        <v>4070</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4065</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17728,10 +17752,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4066</v>
+        <v>4072</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4067</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23103,10 +23127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D761"/>
+  <dimension ref="A1:D763"/>
   <sheetViews>
-    <sheetView topLeftCell="A723" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C756" sqref="C756"/>
+    <sheetView topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D690" sqref="D690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32753,13 +32777,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>3854</v>
+        <v>4066</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D689" s="24" t="s">
-        <v>3910</v>
+        <v>4064</v>
+      </c>
+      <c r="D689" s="26" t="s">
+        <v>4065</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32767,13 +32791,13 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>3856</v>
+        <v>4067</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>3857</v>
-      </c>
-      <c r="D690" s="24" t="s">
-        <v>3911</v>
+        <v>4068</v>
+      </c>
+      <c r="D690" s="26" t="s">
+        <v>4069</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -32781,13 +32805,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>3858</v>
+        <v>3854</v>
       </c>
       <c r="C691" s="17" t="s">
-        <v>3859</v>
+        <v>3855</v>
       </c>
       <c r="D691" s="24" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32795,13 +32819,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>3860</v>
+        <v>3856</v>
       </c>
       <c r="C692" s="17" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
       <c r="D692" s="24" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32809,13 +32833,13 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>3862</v>
+        <v>3858</v>
       </c>
       <c r="C693" s="17" t="s">
-        <v>3863</v>
+        <v>3859</v>
       </c>
       <c r="D693" s="24" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32823,13 +32847,13 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>3864</v>
+        <v>3860</v>
       </c>
       <c r="C694" s="17" t="s">
-        <v>3865</v>
+        <v>3861</v>
       </c>
       <c r="D694" s="24" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32837,13 +32861,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>3866</v>
+        <v>3862</v>
       </c>
       <c r="C695" s="17" t="s">
-        <v>3867</v>
+        <v>3863</v>
       </c>
       <c r="D695" s="24" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32851,13 +32875,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
       <c r="C696" s="17" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="D696" s="24" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32865,13 +32889,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>3870</v>
+        <v>3866</v>
       </c>
       <c r="C697" s="17" t="s">
-        <v>3871</v>
+        <v>3867</v>
       </c>
       <c r="D697" s="24" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32879,13 +32903,13 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>3872</v>
+        <v>3868</v>
       </c>
       <c r="C698" s="17" t="s">
-        <v>3873</v>
+        <v>3869</v>
       </c>
       <c r="D698" s="24" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32893,13 +32917,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>3874</v>
+        <v>3870</v>
       </c>
       <c r="C699" s="17" t="s">
-        <v>3875</v>
+        <v>3871</v>
       </c>
       <c r="D699" s="24" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32907,13 +32931,13 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>3876</v>
+        <v>3872</v>
       </c>
       <c r="C700" s="17" t="s">
-        <v>3877</v>
+        <v>3873</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32921,13 +32945,13 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>3878</v>
+        <v>3874</v>
       </c>
       <c r="C701" s="17" t="s">
-        <v>3879</v>
+        <v>3875</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32935,13 +32959,13 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>3880</v>
+        <v>3876</v>
       </c>
       <c r="C702" s="17" t="s">
-        <v>3881</v>
+        <v>3877</v>
       </c>
       <c r="D702" s="24" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32949,13 +32973,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>3882</v>
+        <v>3878</v>
       </c>
       <c r="C703" s="17" t="s">
-        <v>3883</v>
+        <v>3879</v>
       </c>
       <c r="D703" s="24" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32963,13 +32987,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>3884</v>
+        <v>3880</v>
       </c>
       <c r="C704" s="17" t="s">
-        <v>3975</v>
+        <v>3881</v>
       </c>
       <c r="D704" s="24" t="s">
-        <v>3978</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -32977,13 +33001,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="C705" s="17" t="s">
-        <v>3976</v>
+        <v>3883</v>
       </c>
       <c r="D705" s="24" t="s">
-        <v>3979</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -32991,13 +33015,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -33005,13 +33029,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3888</v>
+        <v>3976</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3925</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -33019,13 +33043,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3890</v>
+        <v>3977</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3926</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -33033,13 +33057,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>3891</v>
+        <v>3887</v>
       </c>
       <c r="C709" s="17" t="s">
-        <v>3892</v>
+        <v>3888</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -33047,13 +33071,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>3893</v>
+        <v>3889</v>
       </c>
       <c r="C710" s="17" t="s">
-        <v>3894</v>
+        <v>3890</v>
       </c>
       <c r="D710" s="24" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -33061,13 +33085,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>3895</v>
+        <v>3891</v>
       </c>
       <c r="C711" s="17" t="s">
-        <v>3896</v>
+        <v>3892</v>
       </c>
       <c r="D711" s="24" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -33075,13 +33099,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>3897</v>
+        <v>3893</v>
       </c>
       <c r="C712" s="17" t="s">
-        <v>3898</v>
+        <v>3894</v>
       </c>
       <c r="D712" s="24" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -33089,13 +33113,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3899</v>
+        <v>3895</v>
       </c>
       <c r="C713" s="17" t="s">
-        <v>3900</v>
+        <v>3896</v>
       </c>
       <c r="D713" s="24" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -33103,13 +33127,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>3901</v>
+        <v>3897</v>
       </c>
       <c r="C714" s="17" t="s">
-        <v>3902</v>
+        <v>3898</v>
       </c>
       <c r="D714" s="24" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -33117,13 +33141,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3933</v>
+        <v>3899</v>
       </c>
       <c r="C715" s="17" t="s">
-        <v>3934</v>
+        <v>3900</v>
       </c>
       <c r="D715" s="24" t="s">
-        <v>3958</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -33131,13 +33155,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3935</v>
+        <v>3901</v>
       </c>
       <c r="C716" s="17" t="s">
-        <v>3936</v>
+        <v>3902</v>
       </c>
       <c r="D716" s="24" t="s">
-        <v>3959</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -33145,13 +33169,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -33159,13 +33183,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3212</v>
+        <v>3936</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -33173,13 +33197,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -33187,13 +33211,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="C720" s="17" t="s">
-        <v>3943</v>
+        <v>3212</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -33201,13 +33225,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -33215,13 +33239,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -33229,13 +33253,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -33243,13 +33267,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -33257,13 +33281,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -33271,13 +33295,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="D726" s="24" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -33285,13 +33309,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="D727" s="24" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -33299,13 +33323,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>3838</v>
+        <v>3954</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>3982</v>
+        <v>3955</v>
       </c>
       <c r="D728" s="24" t="s">
-        <v>3983</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -33313,13 +33337,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>3984</v>
+        <v>3956</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>3985</v>
+        <v>3957</v>
       </c>
       <c r="D729" s="24" t="s">
-        <v>3988</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -33327,13 +33351,13 @@
         <v>729</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>3986</v>
+        <v>3838</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>3987</v>
+        <v>3982</v>
       </c>
       <c r="D730" s="24" t="s">
-        <v>3989</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -33341,13 +33365,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>3990</v>
+        <v>3984</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>1116</v>
+        <v>3985</v>
       </c>
       <c r="D731" s="24" t="s">
-        <v>3314</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -33355,13 +33379,13 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>3991</v>
+        <v>3986</v>
       </c>
       <c r="C732" s="17" t="s">
-        <v>3992</v>
+        <v>3987</v>
       </c>
       <c r="D732" s="24" t="s">
-        <v>4005</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -33369,13 +33393,13 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>3993</v>
+        <v>3990</v>
       </c>
       <c r="C733" s="17" t="s">
-        <v>3994</v>
+        <v>1116</v>
       </c>
       <c r="D733" s="24" t="s">
-        <v>4006</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -33383,13 +33407,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3996</v>
+        <v>3992</v>
       </c>
       <c r="D734" s="24" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -33397,13 +33421,13 @@
         <v>734</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>3997</v>
+        <v>3993</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>3998</v>
+        <v>3994</v>
       </c>
       <c r="D735" s="24" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -33411,13 +33435,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>4000</v>
+        <v>3996</v>
       </c>
       <c r="D736" s="24" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -33425,13 +33449,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>4001</v>
+        <v>3997</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
       <c r="D737" s="24" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -33439,13 +33463,13 @@
         <v>737</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>4004</v>
+        <v>4000</v>
       </c>
       <c r="D738" s="24" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -33453,13 +33477,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>4015</v>
+        <v>4001</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D739" s="17" t="s">
-        <v>4013</v>
+        <v>4002</v>
+      </c>
+      <c r="D739" s="24" t="s">
+        <v>4010</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -33467,13 +33491,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>4016</v>
+        <v>4003</v>
       </c>
       <c r="C740" s="17" t="s">
-        <v>4012</v>
-      </c>
-      <c r="D740" s="17" t="s">
-        <v>4014</v>
+        <v>4004</v>
+      </c>
+      <c r="D740" s="24" t="s">
+        <v>4011</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -33481,13 +33505,13 @@
         <v>740</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="C741" s="17" t="s">
-        <v>4021</v>
-      </c>
-      <c r="D741" s="24" t="s">
-        <v>4022</v>
+        <v>2029</v>
+      </c>
+      <c r="D741" s="17" t="s">
+        <v>4013</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -33495,13 +33519,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>4028</v>
+        <v>4016</v>
       </c>
       <c r="C742" s="17" t="s">
-        <v>4029</v>
-      </c>
-      <c r="D742" s="24" t="s">
-        <v>4030</v>
+        <v>4012</v>
+      </c>
+      <c r="D742" s="17" t="s">
+        <v>4014</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -33509,13 +33533,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>4033</v>
+        <v>4020</v>
       </c>
       <c r="C743" s="17" t="s">
-        <v>4031</v>
+        <v>4021</v>
       </c>
       <c r="D743" s="24" t="s">
-        <v>4032</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -33523,13 +33547,13 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>4042</v>
+        <v>4028</v>
       </c>
       <c r="C744" s="17" t="s">
-        <v>4034</v>
+        <v>4029</v>
       </c>
       <c r="D744" s="24" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -33537,13 +33561,13 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="C745" s="17" t="s">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="D745" s="24" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -33551,13 +33575,13 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>4039</v>
+        <v>4042</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>4040</v>
+        <v>4034</v>
       </c>
       <c r="D746" s="24" t="s">
-        <v>4041</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -33565,13 +33589,13 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>4047</v>
+        <v>4038</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>4045</v>
+        <v>4036</v>
       </c>
       <c r="D747" s="24" t="s">
-        <v>4046</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -33579,13 +33603,13 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>4052</v>
+        <v>4039</v>
       </c>
       <c r="C748" s="17" t="s">
-        <v>4053</v>
+        <v>4040</v>
       </c>
       <c r="D748" s="24" t="s">
-        <v>4054</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -33593,13 +33617,13 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>4055</v>
+        <v>4047</v>
       </c>
       <c r="C749" s="17" t="s">
-        <v>4056</v>
+        <v>4045</v>
       </c>
       <c r="D749" s="24" t="s">
-        <v>4057</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -33607,13 +33631,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>4058</v>
+        <v>4052</v>
       </c>
       <c r="C750" s="17" t="s">
-        <v>4059</v>
+        <v>4053</v>
       </c>
       <c r="D750" s="24" t="s">
-        <v>4060</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -33621,26 +33645,42 @@
         <v>750</v>
       </c>
       <c r="B751" s="4" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D751" s="24" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="14">
+        <v>751</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D752" s="24" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="14">
+        <v>752</v>
+      </c>
+      <c r="B753" s="4" t="s">
         <v>4061</v>
       </c>
-      <c r="C751" s="17" t="s">
+      <c r="C753" s="17" t="s">
         <v>4062</v>
       </c>
-      <c r="D751" s="24" t="s">
+      <c r="D753" s="24" t="s">
         <v>4063</v>
       </c>
-    </row>
-    <row r="752" spans="1:4">
-      <c r="A752" s="14"/>
-      <c r="B752" s="4"/>
-      <c r="C752" s="17"/>
-      <c r="D752" s="24"/>
-    </row>
-    <row r="753" spans="1:4">
-      <c r="A753" s="14"/>
-      <c r="B753" s="4"/>
-      <c r="C753" s="17"/>
-      <c r="D753" s="24"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="14"/>
@@ -33689,6 +33729,18 @@
       <c r="B761" s="4"/>
       <c r="C761" s="17"/>
       <c r="D761" s="24"/>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="14"/>
+      <c r="B762" s="4"/>
+      <c r="C762" s="17"/>
+      <c r="D762" s="24"/>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="14"/>
+      <c r="B763" s="4"/>
+      <c r="C763" s="17"/>
+      <c r="D763" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/dacheng/locale/locale-en.xlsx
+++ b/WebRoot/oem/dacheng/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168048C6-CE69-4305-A291-E3B2E34405BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515B8662-6ECF-4982-9885-33C3B72568DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14621,10 +14621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exportDataLimits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14839,9 +14835,6 @@
     <t>Simulate data sending cycles</t>
   </si>
   <si>
-    <t>Print logs</t>
-  </si>
-  <si>
     <t>Export data limits</t>
   </si>
   <si>
@@ -15410,14 +15403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印通信服务交互日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print the communication service interaction log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>printAdLogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15426,12 +15411,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印异常信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print the exception information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>打印调试日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印交互日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印异常日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print the debug log</t>
+  </si>
+  <si>
+    <t>Print the interaction log</t>
+  </si>
+  <si>
+    <t>Print the exception log</t>
   </si>
   <si>
     <t>煤层气生产管理平台</t>
@@ -23130,7 +23128,7 @@
   <dimension ref="A1:D763"/>
   <sheetViews>
     <sheetView topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D690" sqref="D690"/>
+      <selection activeCell="D688" sqref="D688:D690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25864,10 +25862,10 @@
         <v>183</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -25889,13 +25887,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -25906,10 +25904,10 @@
         <v>185</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -26368,10 +26366,10 @@
         <v>231</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -26379,13 +26377,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -30778,10 +30776,10 @@
         <v>484</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="D546" s="24" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -32651,13 +32649,13 @@
         <v>679</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="C680" s="17" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="D680" s="24" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -32668,10 +32666,10 @@
         <v>3839</v>
       </c>
       <c r="C681" s="17" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="D681" s="24" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -32685,7 +32683,7 @@
         <v>3841</v>
       </c>
       <c r="D682" s="24" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -32699,7 +32697,7 @@
         <v>3843</v>
       </c>
       <c r="D683" s="24" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -32713,7 +32711,7 @@
         <v>3845</v>
       </c>
       <c r="D684" s="24" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -32727,7 +32725,7 @@
         <v>3847</v>
       </c>
       <c r="D685" s="24" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -32741,7 +32739,7 @@
         <v>3849</v>
       </c>
       <c r="D686" s="24" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -32755,7 +32753,7 @@
         <v>3851</v>
       </c>
       <c r="D687" s="24" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -32766,10 +32764,10 @@
         <v>3852</v>
       </c>
       <c r="C688" s="17" t="s">
-        <v>3853</v>
+        <v>4064</v>
       </c>
       <c r="D688" s="24" t="s">
-        <v>3909</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -32777,13 +32775,13 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>4066</v>
+        <v>4062</v>
       </c>
       <c r="C689" s="17" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="D689" s="26" t="s">
-        <v>4065</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -32791,10 +32789,10 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>4067</v>
+        <v>4063</v>
       </c>
       <c r="C690" s="17" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="D690" s="26" t="s">
         <v>4069</v>
@@ -32805,13 +32803,13 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C691" s="17" t="s">
         <v>3854</v>
       </c>
-      <c r="C691" s="17" t="s">
-        <v>3855</v>
-      </c>
       <c r="D691" s="24" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -32819,13 +32817,13 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C692" s="17" t="s">
         <v>3856</v>
       </c>
-      <c r="C692" s="17" t="s">
-        <v>3857</v>
-      </c>
       <c r="D692" s="24" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -32833,13 +32831,13 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C693" s="17" t="s">
         <v>3858</v>
       </c>
-      <c r="C693" s="17" t="s">
-        <v>3859</v>
-      </c>
       <c r="D693" s="24" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -32847,13 +32845,13 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C694" s="17" t="s">
         <v>3860</v>
       </c>
-      <c r="C694" s="17" t="s">
-        <v>3861</v>
-      </c>
       <c r="D694" s="24" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -32861,13 +32859,13 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C695" s="17" t="s">
         <v>3862</v>
       </c>
-      <c r="C695" s="17" t="s">
-        <v>3863</v>
-      </c>
       <c r="D695" s="24" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -32875,13 +32873,13 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C696" s="17" t="s">
         <v>3864</v>
       </c>
-      <c r="C696" s="17" t="s">
-        <v>3865</v>
-      </c>
       <c r="D696" s="24" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -32889,13 +32887,13 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C697" s="17" t="s">
         <v>3866</v>
       </c>
-      <c r="C697" s="17" t="s">
-        <v>3867</v>
-      </c>
       <c r="D697" s="24" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -32903,13 +32901,13 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C698" s="17" t="s">
         <v>3868</v>
       </c>
-      <c r="C698" s="17" t="s">
-        <v>3869</v>
-      </c>
       <c r="D698" s="24" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -32917,13 +32915,13 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C699" s="17" t="s">
         <v>3870</v>
       </c>
-      <c r="C699" s="17" t="s">
-        <v>3871</v>
-      </c>
       <c r="D699" s="24" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -32931,13 +32929,13 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C700" s="17" t="s">
         <v>3872</v>
       </c>
-      <c r="C700" s="17" t="s">
-        <v>3873</v>
-      </c>
       <c r="D700" s="24" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -32945,13 +32943,13 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C701" s="17" t="s">
         <v>3874</v>
       </c>
-      <c r="C701" s="17" t="s">
-        <v>3875</v>
-      </c>
       <c r="D701" s="24" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -32959,13 +32957,13 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C702" s="17" t="s">
         <v>3876</v>
       </c>
-      <c r="C702" s="17" t="s">
-        <v>3877</v>
-      </c>
       <c r="D702" s="24" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -32973,13 +32971,13 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C703" s="17" t="s">
         <v>3878</v>
       </c>
-      <c r="C703" s="17" t="s">
-        <v>3879</v>
-      </c>
       <c r="D703" s="24" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -32987,13 +32985,13 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C704" s="17" t="s">
         <v>3880</v>
       </c>
-      <c r="C704" s="17" t="s">
-        <v>3881</v>
-      </c>
       <c r="D704" s="24" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -33001,13 +32999,13 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C705" s="17" t="s">
         <v>3882</v>
       </c>
-      <c r="C705" s="17" t="s">
-        <v>3883</v>
-      </c>
       <c r="D705" s="24" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -33015,13 +33013,13 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="C706" s="17" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="D706" s="24" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -33029,13 +33027,13 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="C707" s="17" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="D707" s="24" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -33043,13 +33041,13 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C708" s="17" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -33057,13 +33055,13 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C709" s="17" t="s">
         <v>3887</v>
       </c>
-      <c r="C709" s="17" t="s">
-        <v>3888</v>
-      </c>
       <c r="D709" s="24" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -33071,13 +33069,13 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C710" s="17" t="s">
         <v>3889</v>
       </c>
-      <c r="C710" s="17" t="s">
-        <v>3890</v>
-      </c>
       <c r="D710" s="24" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -33085,13 +33083,13 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C711" s="17" t="s">
         <v>3891</v>
       </c>
-      <c r="C711" s="17" t="s">
-        <v>3892</v>
-      </c>
       <c r="D711" s="24" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -33099,13 +33097,13 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C712" s="17" t="s">
         <v>3893</v>
       </c>
-      <c r="C712" s="17" t="s">
-        <v>3894</v>
-      </c>
       <c r="D712" s="24" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -33113,13 +33111,13 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C713" s="17" t="s">
         <v>3895</v>
       </c>
-      <c r="C713" s="17" t="s">
-        <v>3896</v>
-      </c>
       <c r="D713" s="24" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -33127,13 +33125,13 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C714" s="17" t="s">
         <v>3897</v>
       </c>
-      <c r="C714" s="17" t="s">
-        <v>3898</v>
-      </c>
       <c r="D714" s="24" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -33141,13 +33139,13 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C715" s="17" t="s">
         <v>3899</v>
       </c>
-      <c r="C715" s="17" t="s">
-        <v>3900</v>
-      </c>
       <c r="D715" s="24" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -33155,13 +33153,13 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C716" s="17" t="s">
         <v>3901</v>
       </c>
-      <c r="C716" s="17" t="s">
-        <v>3902</v>
-      </c>
       <c r="D716" s="24" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -33169,13 +33167,13 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="C717" s="17" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="D717" s="24" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -33183,13 +33181,13 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="C718" s="17" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="D718" s="24" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -33197,13 +33195,13 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="C719" s="17" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="D719" s="24" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -33211,13 +33209,13 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="C720" s="17" t="s">
         <v>3212</v>
       </c>
       <c r="D720" s="24" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -33225,13 +33223,13 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="C721" s="17" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="D721" s="24" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -33239,13 +33237,13 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="C722" s="17" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="D722" s="24" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -33253,13 +33251,13 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="C723" s="17" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -33267,13 +33265,13 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="C724" s="17" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -33281,13 +33279,13 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="D725" s="24" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -33295,13 +33293,13 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="C726" s="17" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="D726" s="24" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -33309,13 +33307,13 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="C727" s="17" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="D727" s="24" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -33323,13 +33321,13 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="C728" s="17" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="D728" s="24" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -33337,13 +33335,13 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="C729" s="17" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="D729" s="24" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -33354,10 +33352,10 @@
         <v>3838</v>
       </c>
       <c r="C730" s="17" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="D730" s="24" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -33365,13 +33363,13 @@
         <v>730</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="D731" s="24" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -33379,13 +33377,13 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="C732" s="17" t="s">
+        <v>3985</v>
+      </c>
+      <c r="D732" s="24" t="s">
         <v>3987</v>
-      </c>
-      <c r="D732" s="24" t="s">
-        <v>3989</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -33393,7 +33391,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="C733" s="17" t="s">
         <v>1116</v>
@@ -33407,13 +33405,13 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="C734" s="17" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="D734" s="24" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -33421,13 +33419,13 @@
         <v>734</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="C735" s="17" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="D735" s="24" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -33435,13 +33433,13 @@
         <v>735</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="D736" s="24" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -33449,13 +33447,13 @@
         <v>736</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="D737" s="24" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -33463,13 +33461,13 @@
         <v>737</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="C738" s="17" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D738" s="24" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -33477,13 +33475,13 @@
         <v>738</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="C739" s="17" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="D739" s="24" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -33491,13 +33489,13 @@
         <v>739</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C740" s="17" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="D740" s="24" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -33505,13 +33503,13 @@
         <v>740</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="C741" s="17" t="s">
         <v>2029</v>
       </c>
       <c r="D741" s="17" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -33519,13 +33517,13 @@
         <v>741</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="C742" s="17" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D742" s="17" t="s">
         <v>4012</v>
-      </c>
-      <c r="D742" s="17" t="s">
-        <v>4014</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -33533,13 +33531,13 @@
         <v>742</v>
       </c>
       <c r="B743" s="4" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C743" s="17" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D743" s="24" t="s">
         <v>4020</v>
-      </c>
-      <c r="C743" s="17" t="s">
-        <v>4021</v>
-      </c>
-      <c r="D743" s="24" t="s">
-        <v>4022</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -33547,13 +33545,13 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C744" s="17" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D744" s="24" t="s">
         <v>4028</v>
-      </c>
-      <c r="C744" s="17" t="s">
-        <v>4029</v>
-      </c>
-      <c r="D744" s="24" t="s">
-        <v>4030</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -33561,13 +33559,13 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="C745" s="17" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="D745" s="24" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -33575,13 +33573,13 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="C746" s="17" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="D746" s="24" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -33589,13 +33587,13 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="C747" s="17" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="D747" s="24" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -33603,13 +33601,13 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C748" s="17" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D748" s="24" t="s">
         <v>4039</v>
-      </c>
-      <c r="C748" s="17" t="s">
-        <v>4040</v>
-      </c>
-      <c r="D748" s="24" t="s">
-        <v>4041</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -33617,13 +33615,13 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="C749" s="17" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="D749" s="24" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -33631,13 +33629,13 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C750" s="17" t="s">
+        <v>4051</v>
+      </c>
+      <c r="D750" s="24" t="s">
         <v>4052</v>
-      </c>
-      <c r="C750" s="17" t="s">
-        <v>4053</v>
-      </c>
-      <c r="D750" s="24" t="s">
-        <v>4054</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -33645,13 +33643,13 @@
         <v>750</v>
       </c>
       <c r="B751" s="4" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>4054</v>
+      </c>
+      <c r="D751" s="24" t="s">
         <v>4055</v>
-      </c>
-      <c r="C751" s="17" t="s">
-        <v>4056</v>
-      </c>
-      <c r="D751" s="24" t="s">
-        <v>4057</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -33659,13 +33657,13 @@
         <v>751</v>
       </c>
       <c r="B752" s="4" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>4057</v>
+      </c>
+      <c r="D752" s="24" t="s">
         <v>4058</v>
-      </c>
-      <c r="C752" s="17" t="s">
-        <v>4059</v>
-      </c>
-      <c r="D752" s="24" t="s">
-        <v>4060</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -33673,13 +33671,13 @@
         <v>752</v>
       </c>
       <c r="B753" s="4" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C753" s="17" t="s">
+        <v>4060</v>
+      </c>
+      <c r="D753" s="24" t="s">
         <v>4061</v>
-      </c>
-      <c r="C753" s="17" t="s">
-        <v>4062</v>
-      </c>
-      <c r="D753" s="24" t="s">
-        <v>4063</v>
       </c>
     </row>
     <row r="754" spans="1:4">

--- a/WebRoot/oem/dacheng/locale/locale-en.xlsx
+++ b/WebRoot/oem/dacheng/locale/locale-en.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515B8662-6ECF-4982-9885-33C3B72568DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230AF9CF-AA1F-46D5-99A2-1428E2528735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="4074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="4104">
   <si>
     <t>myself</t>
   </si>
@@ -15430,6 +15430,120 @@
   </si>
   <si>
     <t>Print the exception log</t>
+  </si>
+  <si>
+    <t>projectTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示内容配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtimeMonitoringModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时监控模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FESResultStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况诊断统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatusStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信状态统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusStatisticsPieChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态统计饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyQueryModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmQueryModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display content configuration</t>
+  </si>
+  <si>
+    <t>Real-time monitoring module</t>
+  </si>
+  <si>
+    <t>Condition Diagnosis Statistics Pie Chart</t>
+  </si>
+  <si>
+    <t>Communication status statistics pie chart</t>
+  </si>
+  <si>
+    <t>Run state statistics pie chart</t>
+  </si>
+  <si>
+    <t>History query module</t>
+  </si>
+  <si>
+    <t>报警查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm query module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primaryDeviceModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主设备模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary device module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>煤层气生产管理平台</t>
@@ -17736,10 +17850,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>4070</v>
+        <v>4100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4071</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17750,10 +17864,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>4072</v>
+        <v>4102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4073</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23125,10 +23239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBAC76-7507-496A-9947-9F636F0BCBC6}">
-  <dimension ref="A1:D763"/>
+  <dimension ref="A1:D783"/>
   <sheetViews>
-    <sheetView topLeftCell="A672" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D688" sqref="D688:D690"/>
+    <sheetView topLeftCell="A744" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D768" sqref="D768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33681,64 +33795,264 @@
       </c>
     </row>
     <row r="754" spans="1:4">
-      <c r="A754" s="14"/>
-      <c r="B754" s="4"/>
-      <c r="C754" s="17"/>
-      <c r="D754" s="24"/>
+      <c r="A754" s="14">
+        <v>753</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C754" s="17" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D754" s="24" t="s">
+        <v>4098</v>
+      </c>
     </row>
     <row r="755" spans="1:4">
-      <c r="A755" s="14"/>
-      <c r="B755" s="4"/>
-      <c r="C755" s="17"/>
-      <c r="D755" s="24"/>
+      <c r="A755" s="14">
+        <v>754</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C755" s="17" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D755" s="24" t="s">
+        <v>4099</v>
+      </c>
     </row>
     <row r="756" spans="1:4">
-      <c r="A756" s="14"/>
-      <c r="B756" s="4"/>
-      <c r="C756" s="17"/>
-      <c r="D756" s="24"/>
+      <c r="A756" s="14">
+        <v>755</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C756" s="17" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D756" s="24" t="s">
+        <v>4087</v>
+      </c>
     </row>
     <row r="757" spans="1:4">
-      <c r="A757" s="14"/>
-      <c r="B757" s="4"/>
-      <c r="C757" s="17"/>
-      <c r="D757" s="24"/>
+      <c r="A757" s="14">
+        <v>756</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C757" s="17" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D757" s="24" t="s">
+        <v>4088</v>
+      </c>
     </row>
     <row r="758" spans="1:4">
-      <c r="A758" s="14"/>
-      <c r="B758" s="4"/>
-      <c r="C758" s="17"/>
-      <c r="D758" s="24"/>
+      <c r="A758" s="14">
+        <v>757</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C758" s="17" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D758" s="24" t="s">
+        <v>4089</v>
+      </c>
     </row>
     <row r="759" spans="1:4">
-      <c r="A759" s="14"/>
-      <c r="B759" s="4"/>
-      <c r="C759" s="17"/>
-      <c r="D759" s="24"/>
+      <c r="A759" s="14">
+        <v>758</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C759" s="17" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D759" s="24" t="s">
+        <v>4090</v>
+      </c>
     </row>
     <row r="760" spans="1:4">
-      <c r="A760" s="14"/>
-      <c r="B760" s="4"/>
-      <c r="C760" s="17"/>
-      <c r="D760" s="24"/>
+      <c r="A760" s="14">
+        <v>759</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C760" s="17" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D760" s="24" t="s">
+        <v>4091</v>
+      </c>
     </row>
     <row r="761" spans="1:4">
-      <c r="A761" s="14"/>
-      <c r="B761" s="4"/>
-      <c r="C761" s="17"/>
-      <c r="D761" s="24"/>
+      <c r="A761" s="14">
+        <v>760</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C761" s="17" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D761" s="24" t="s">
+        <v>4092</v>
+      </c>
     </row>
     <row r="762" spans="1:4">
-      <c r="A762" s="14"/>
-      <c r="B762" s="4"/>
-      <c r="C762" s="17"/>
-      <c r="D762" s="24"/>
+      <c r="A762" s="14">
+        <v>761</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C762" s="17" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D762" s="24" t="s">
+        <v>4094</v>
+      </c>
     </row>
     <row r="763" spans="1:4">
-      <c r="A763" s="14"/>
-      <c r="B763" s="4"/>
-      <c r="C763" s="17"/>
-      <c r="D763" s="24"/>
+      <c r="A763" s="14">
+        <v>762</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C763" s="17" t="s">
+        <v>4096</v>
+      </c>
+      <c r="D763" s="24" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="14"/>
+      <c r="B764" s="4"/>
+      <c r="C764" s="17"/>
+      <c r="D764" s="24"/>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="14"/>
+      <c r="B765" s="4"/>
+      <c r="C765" s="17"/>
+      <c r="D765" s="24"/>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="14"/>
+      <c r="B766" s="4"/>
+      <c r="C766" s="17"/>
+      <c r="D766" s="24"/>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="14"/>
+      <c r="B767" s="4"/>
+      <c r="C767" s="17"/>
+      <c r="D767" s="24"/>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="14"/>
+      <c r="B768" s="4"/>
+      <c r="C768" s="17"/>
+      <c r="D768" s="24"/>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="14"/>
+      <c r="B769" s="4"/>
+      <c r="C769" s="17"/>
+      <c r="D769" s="24"/>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="14"/>
+      <c r="B770" s="4"/>
+      <c r="C770" s="17"/>
+      <c r="D770" s="24"/>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="14"/>
+      <c r="B771" s="4"/>
+      <c r="C771" s="17"/>
+      <c r="D771" s="24"/>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="14"/>
+      <c r="B772" s="4"/>
+      <c r="C772" s="17"/>
+      <c r="D772" s="24"/>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="14"/>
+      <c r="B773" s="4"/>
+      <c r="C773" s="17"/>
+      <c r="D773" s="24"/>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="14"/>
+      <c r="B774" s="4"/>
+      <c r="C774" s="17"/>
+      <c r="D774" s="24"/>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="14"/>
+      <c r="B775" s="4"/>
+      <c r="C775" s="17"/>
+      <c r="D775" s="24"/>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="14"/>
+      <c r="B776" s="4"/>
+      <c r="C776" s="17"/>
+      <c r="D776" s="24"/>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="14"/>
+      <c r="B777" s="4"/>
+      <c r="C777" s="17"/>
+      <c r="D777" s="24"/>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="14"/>
+      <c r="B778" s="4"/>
+      <c r="C778" s="17"/>
+      <c r="D778" s="24"/>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="14"/>
+      <c r="B779" s="4"/>
+      <c r="C779" s="17"/>
+      <c r="D779" s="24"/>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="14"/>
+      <c r="B780" s="4"/>
+      <c r="C780" s="17"/>
+      <c r="D780" s="24"/>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="14"/>
+      <c r="B781" s="4"/>
+      <c r="C781" s="17"/>
+      <c r="D781" s="24"/>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="14"/>
+      <c r="B782" s="4"/>
+      <c r="C782" s="17"/>
+      <c r="D782" s="24"/>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="14"/>
+      <c r="B783" s="4"/>
+      <c r="C783" s="17"/>
+      <c r="D783" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
